--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ntn1-Neo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +98,6 @@
   </si>
   <si>
     <t>Neo1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.66317781127442</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H2">
-        <v>0.66317781127442</v>
+        <v>2.542783</v>
       </c>
       <c r="I2">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J2">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90316843546414</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N2">
-        <v>1.90316843546414</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O2">
-        <v>0.04382566701257665</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P2">
-        <v>0.04382566701257665</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q2">
-        <v>1.262139077517671</v>
+        <v>1.660419216987555</v>
       </c>
       <c r="R2">
-        <v>1.262139077517671</v>
+        <v>14.943772952888</v>
       </c>
       <c r="S2">
-        <v>0.002014255393556378</v>
+        <v>0.002400394050679802</v>
       </c>
       <c r="T2">
-        <v>0.002014255393556378</v>
+        <v>0.002400394050679802</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.66317781127442</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H3">
-        <v>0.66317781127442</v>
+        <v>2.542783</v>
       </c>
       <c r="I3">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J3">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>26.7822875133015</v>
+        <v>26.851518</v>
       </c>
       <c r="N3">
-        <v>26.7822875133015</v>
+        <v>80.554554</v>
       </c>
       <c r="O3">
-        <v>0.6167355408596766</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P3">
-        <v>0.6167355408596766</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q3">
-        <v>17.76141881399352</v>
+        <v>22.759194498198</v>
       </c>
       <c r="R3">
-        <v>17.76141881399352</v>
+        <v>204.832750483782</v>
       </c>
       <c r="S3">
-        <v>0.02834555579537492</v>
+        <v>0.0329019530205476</v>
       </c>
       <c r="T3">
-        <v>0.02834555579537492</v>
+        <v>0.0329019530205476</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.66317781127442</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H4">
-        <v>0.66317781127442</v>
+        <v>2.542783</v>
       </c>
       <c r="I4">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J4">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.420206054720799</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N4">
-        <v>0.420206054720799</v>
+        <v>0.386678</v>
       </c>
       <c r="O4">
-        <v>0.009676395576816666</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P4">
-        <v>0.009676395576816666</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q4">
-        <v>0.2786713316539987</v>
+        <v>0.1092486938748889</v>
       </c>
       <c r="R4">
-        <v>0.2786713316539987</v>
+        <v>0.983238244874</v>
       </c>
       <c r="S4">
-        <v>0.0004447332649881812</v>
+        <v>0.0001579359670972706</v>
       </c>
       <c r="T4">
-        <v>0.0004447332649881812</v>
+        <v>0.0001579359670972705</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.66317781127442</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H5">
-        <v>0.66317781127442</v>
+        <v>2.542783</v>
       </c>
       <c r="I5">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J5">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6017713141398831</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N5">
-        <v>0.6017713141398831</v>
+        <v>1.341985</v>
       </c>
       <c r="O5">
-        <v>0.01385743307831993</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P5">
-        <v>0.01385743307831993</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q5">
-        <v>0.3990813829990191</v>
+        <v>0.3791529604727778</v>
       </c>
       <c r="R5">
-        <v>0.3990813829990191</v>
+        <v>3.412376644255</v>
       </c>
       <c r="S5">
-        <v>0.0006368963947734659</v>
+        <v>0.0005481245346387191</v>
       </c>
       <c r="T5">
-        <v>0.0006368963947734659</v>
+        <v>0.000548124534638719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,123 +776,123 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.66317781127442</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H6">
-        <v>0.66317781127442</v>
+        <v>2.542783</v>
       </c>
       <c r="I6">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J6">
-        <v>0.04596063290898338</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.718453045221</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N6">
-        <v>13.718453045221</v>
+        <v>1.851284</v>
       </c>
       <c r="O6">
-        <v>0.3159049634726101</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P6">
-        <v>0.3159049634726101</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q6">
-        <v>9.097773664600565</v>
+        <v>0.5230459425968889</v>
       </c>
       <c r="R6">
-        <v>9.097773664600565</v>
+        <v>4.707413483372</v>
       </c>
       <c r="S6">
-        <v>0.01451919206029043</v>
+        <v>0.0007561442050277063</v>
       </c>
       <c r="T6">
-        <v>0.01451919206029043</v>
+        <v>0.0007561442050277063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>10.5029243284906</v>
+        <v>0.8475943333333333</v>
       </c>
       <c r="H7">
-        <v>10.5029243284906</v>
+        <v>2.542783</v>
       </c>
       <c r="I7">
-        <v>0.7278908330858485</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="J7">
-        <v>0.7278908330858485</v>
+        <v>0.05593357876111178</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.90316843546414</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N7">
-        <v>1.90316843546414</v>
+        <v>46.931938</v>
       </c>
       <c r="O7">
-        <v>0.04382566701257665</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P7">
-        <v>0.04382566701257665</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q7">
-        <v>19.98883406205171</v>
+        <v>13.25974823371711</v>
       </c>
       <c r="R7">
-        <v>19.98883406205171</v>
+        <v>119.337734103454</v>
       </c>
       <c r="S7">
-        <v>0.0319003012723274</v>
+        <v>0.01916902698312069</v>
       </c>
       <c r="T7">
-        <v>0.0319003012723274</v>
+        <v>0.01916902698312069</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.5029243284906</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H8">
-        <v>10.5029243284906</v>
+        <v>32.140514</v>
       </c>
       <c r="I8">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917676</v>
       </c>
       <c r="J8">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917675</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.7822875133015</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N8">
-        <v>26.7822875133015</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O8">
-        <v>0.6167355408596766</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P8">
-        <v>0.6167355408596766</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q8">
-        <v>281.2923390960843</v>
+        <v>20.98752708723377</v>
       </c>
       <c r="R8">
-        <v>281.2923390960843</v>
+        <v>188.8877437851039</v>
       </c>
       <c r="S8">
-        <v>0.4489161466300013</v>
+        <v>0.03034073241459884</v>
       </c>
       <c r="T8">
-        <v>0.4489161466300013</v>
+        <v>0.03034073241459884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.5029243284906</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H9">
-        <v>10.5029243284906</v>
+        <v>32.140514</v>
       </c>
       <c r="I9">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917676</v>
       </c>
       <c r="J9">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917675</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.420206054720799</v>
+        <v>26.851518</v>
       </c>
       <c r="N9">
-        <v>0.420206054720799</v>
+        <v>80.554554</v>
       </c>
       <c r="O9">
-        <v>0.009676395576816666</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P9">
-        <v>0.009676395576816666</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q9">
-        <v>4.413392395106133</v>
+        <v>287.673863400084</v>
       </c>
       <c r="R9">
-        <v>4.413392395106133</v>
+        <v>2589.064770600756</v>
       </c>
       <c r="S9">
-        <v>0.007043359637677302</v>
+        <v>0.4158772815785902</v>
       </c>
       <c r="T9">
-        <v>0.007043359637677302</v>
+        <v>0.4158772815785901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.5029243284906</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H10">
-        <v>10.5029243284906</v>
+        <v>32.140514</v>
       </c>
       <c r="I10">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917676</v>
       </c>
       <c r="J10">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917675</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.6017713141398831</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N10">
-        <v>0.6017713141398831</v>
+        <v>0.386678</v>
       </c>
       <c r="O10">
-        <v>0.01385743307831993</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P10">
-        <v>0.01385743307831993</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q10">
-        <v>6.320358575467537</v>
+        <v>1.380892185832445</v>
       </c>
       <c r="R10">
-        <v>6.320358575467537</v>
+        <v>12.428029672492</v>
       </c>
       <c r="S10">
-        <v>0.01008669850780969</v>
+        <v>0.001996294281341886</v>
       </c>
       <c r="T10">
-        <v>0.01008669850780969</v>
+        <v>0.001996294281341885</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,185 +1086,185 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.5029243284906</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H11">
-        <v>10.5029243284906</v>
+        <v>32.140514</v>
       </c>
       <c r="I11">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917676</v>
       </c>
       <c r="J11">
-        <v>0.7278908330858485</v>
+        <v>0.7069946476917675</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>13.718453045221</v>
+        <v>0.4473283333333333</v>
       </c>
       <c r="N11">
-        <v>13.718453045221</v>
+        <v>1.341985</v>
       </c>
       <c r="O11">
-        <v>0.3159049634726101</v>
+        <v>0.009799561315032583</v>
       </c>
       <c r="P11">
-        <v>0.3159049634726101</v>
+        <v>0.009799561315032582</v>
       </c>
       <c r="Q11">
-        <v>144.0838742379076</v>
+        <v>4.792454186698889</v>
       </c>
       <c r="R11">
-        <v>144.0838742379076</v>
+        <v>43.13208768028999</v>
       </c>
       <c r="S11">
-        <v>0.2299443270380327</v>
+        <v>0.006928237399455335</v>
       </c>
       <c r="T11">
-        <v>0.2299443270380327</v>
+        <v>0.006928237399455334</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.2631554509153</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H12">
-        <v>3.2631554509153</v>
+        <v>32.140514</v>
       </c>
       <c r="I12">
-        <v>0.2261485340051682</v>
+        <v>0.7069946476917676</v>
       </c>
       <c r="J12">
-        <v>0.2261485340051682</v>
+        <v>0.7069946476917675</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.90316843546414</v>
+        <v>0.6170946666666667</v>
       </c>
       <c r="N12">
-        <v>1.90316843546414</v>
+        <v>1.851284</v>
       </c>
       <c r="O12">
-        <v>0.04382566701257665</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="P12">
-        <v>0.04382566701257665</v>
+        <v>0.01351860942524602</v>
       </c>
       <c r="Q12">
-        <v>6.210334454194752</v>
+        <v>6.611246591108443</v>
       </c>
       <c r="R12">
-        <v>6.210334454194752</v>
+        <v>59.50121931997599</v>
       </c>
       <c r="S12">
-        <v>0.00991111034669287</v>
+        <v>0.009557584507884418</v>
       </c>
       <c r="T12">
-        <v>0.00991111034669287</v>
+        <v>0.009557584507884416</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.2631554509153</v>
+        <v>10.71350466666667</v>
       </c>
       <c r="H13">
-        <v>3.2631554509153</v>
+        <v>32.140514</v>
       </c>
       <c r="I13">
-        <v>0.2261485340051682</v>
+        <v>0.7069946476917676</v>
       </c>
       <c r="J13">
-        <v>0.2261485340051682</v>
+        <v>0.7069946476917675</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>26.7822875133015</v>
+        <v>15.64397933333333</v>
       </c>
       <c r="N13">
-        <v>26.7822875133015</v>
+        <v>46.931938</v>
       </c>
       <c r="O13">
-        <v>0.6167355408596766</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="P13">
-        <v>0.6167355408596766</v>
+        <v>0.3427105400316007</v>
       </c>
       <c r="Q13">
-        <v>87.39476748701057</v>
+        <v>167.6018455929035</v>
       </c>
       <c r="R13">
-        <v>87.39476748701057</v>
+        <v>1508.416610336132</v>
       </c>
       <c r="S13">
-        <v>0.1394738384343004</v>
+        <v>0.2422945175098969</v>
       </c>
       <c r="T13">
-        <v>0.1394738384343004</v>
+        <v>0.2422945175098969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.2631554509153</v>
+        <v>0.06359233333333333</v>
       </c>
       <c r="H14">
-        <v>3.2631554509153</v>
+        <v>0.190777</v>
       </c>
       <c r="I14">
-        <v>0.2261485340051682</v>
+        <v>0.004196520251751181</v>
       </c>
       <c r="J14">
-        <v>0.2261485340051682</v>
+        <v>0.00419652025175118</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.420206054720799</v>
+        <v>1.958978666666666</v>
       </c>
       <c r="N14">
-        <v>0.420206054720799</v>
+        <v>5.876935999999999</v>
       </c>
       <c r="O14">
-        <v>0.009676395576816666</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="P14">
-        <v>0.009676395576816666</v>
+        <v>0.04291508077699997</v>
       </c>
       <c r="Q14">
-        <v>1.371197677969788</v>
+        <v>0.1245760243635555</v>
       </c>
       <c r="R14">
-        <v>1.371197677969788</v>
+        <v>1.121184219272</v>
       </c>
       <c r="S14">
-        <v>0.002188302674151183</v>
+        <v>0.0001800940055862182</v>
       </c>
       <c r="T14">
-        <v>0.002188302674151183</v>
+        <v>0.0001800940055862182</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.2631554509153</v>
+        <v>0.06359233333333333</v>
       </c>
       <c r="H15">
-        <v>3.2631554509153</v>
+        <v>0.190777</v>
       </c>
       <c r="I15">
-        <v>0.2261485340051682</v>
+        <v>0.004196520251751181</v>
       </c>
       <c r="J15">
-        <v>0.2261485340051682</v>
+        <v>0.00419652025175118</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.6017713141398831</v>
+        <v>26.851518</v>
       </c>
       <c r="N15">
-        <v>0.6017713141398831</v>
+        <v>80.554554</v>
       </c>
       <c r="O15">
-        <v>0.01385743307831993</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="P15">
-        <v>0.01385743307831993</v>
+        <v>0.5882325742300422</v>
       </c>
       <c r="Q15">
-        <v>1.963673343940023</v>
+        <v>1.707550683162</v>
       </c>
       <c r="R15">
-        <v>1.963673343940023</v>
+        <v>15.367956148458</v>
       </c>
       <c r="S15">
-        <v>0.003133838175736779</v>
+        <v>0.002468529910496102</v>
       </c>
       <c r="T15">
-        <v>0.003133838175736779</v>
+        <v>0.002468529910496101</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,10 +1396,10 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
@@ -1405,49 +1408,1351 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.2631554509153</v>
+        <v>0.06359233333333333</v>
       </c>
       <c r="H16">
-        <v>3.2631554509153</v>
+        <v>0.190777</v>
       </c>
       <c r="I16">
-        <v>0.2261485340051682</v>
+        <v>0.004196520251751181</v>
       </c>
       <c r="J16">
-        <v>0.2261485340051682</v>
+        <v>0.00419652025175118</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>13.718453045221</v>
+        <v>0.1288926666666667</v>
       </c>
       <c r="N16">
-        <v>13.718453045221</v>
+        <v>0.386678</v>
       </c>
       <c r="O16">
-        <v>0.3159049634726101</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="P16">
-        <v>0.3159049634726101</v>
+        <v>0.002823634221078603</v>
       </c>
       <c r="Q16">
-        <v>44.76544483263851</v>
+        <v>0.00819658542288889</v>
       </c>
       <c r="R16">
-        <v>44.76544483263851</v>
+        <v>0.073769268806</v>
       </c>
       <c r="S16">
-        <v>0.071441444374287</v>
+        <v>1.184943819229403E-05</v>
       </c>
       <c r="T16">
-        <v>0.071441444374287</v>
+        <v>1.184943819229403E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.06359233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.190777</v>
+      </c>
+      <c r="I17">
+        <v>0.004196520251751181</v>
+      </c>
+      <c r="J17">
+        <v>0.00419652025175118</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N17">
+        <v>1.341985</v>
+      </c>
+      <c r="O17">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P17">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q17">
+        <v>0.02844665248277778</v>
+      </c>
+      <c r="R17">
+        <v>0.256019872345</v>
+      </c>
+      <c r="S17">
+        <v>4.112405751681167E-05</v>
+      </c>
+      <c r="T17">
+        <v>4.112405751681165E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.06359233333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.190777</v>
+      </c>
+      <c r="I18">
+        <v>0.004196520251751181</v>
+      </c>
+      <c r="J18">
+        <v>0.00419652025175118</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.851284</v>
+      </c>
+      <c r="O18">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P18">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q18">
+        <v>0.03924248974088889</v>
+      </c>
+      <c r="R18">
+        <v>0.353182407668</v>
+      </c>
+      <c r="S18">
+        <v>5.673111822855932E-05</v>
+      </c>
+      <c r="T18">
+        <v>5.67311182285593E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06359233333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.190777</v>
+      </c>
+      <c r="I19">
+        <v>0.004196520251751181</v>
+      </c>
+      <c r="J19">
+        <v>0.00419652025175118</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N19">
+        <v>46.931938</v>
+      </c>
+      <c r="O19">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P19">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q19">
+        <v>0.9948371484251112</v>
+      </c>
+      <c r="R19">
+        <v>8.953534335826001</v>
+      </c>
+      <c r="S19">
+        <v>0.001438191721731196</v>
+      </c>
+      <c r="T19">
+        <v>0.001438191721731196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H20">
+        <v>0.126091</v>
+      </c>
+      <c r="I20">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J20">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.958978666666666</v>
+      </c>
+      <c r="N20">
+        <v>5.876935999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="P20">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="Q20">
+        <v>0.08233652635288888</v>
+      </c>
+      <c r="R20">
+        <v>0.7410287371759999</v>
+      </c>
+      <c r="S20">
+        <v>0.000119030246090314</v>
+      </c>
+      <c r="T20">
+        <v>0.000119030246090314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H21">
+        <v>0.126091</v>
+      </c>
+      <c r="I21">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J21">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.851518</v>
+      </c>
+      <c r="N21">
+        <v>80.554554</v>
+      </c>
+      <c r="O21">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="P21">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="Q21">
+        <v>1.128578252046</v>
+      </c>
+      <c r="R21">
+        <v>10.157204268414</v>
+      </c>
+      <c r="S21">
+        <v>0.001631535273876641</v>
+      </c>
+      <c r="T21">
+        <v>0.001631535273876641</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H22">
+        <v>0.126091</v>
+      </c>
+      <c r="I22">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J22">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.1288926666666667</v>
+      </c>
+      <c r="N22">
+        <v>0.386678</v>
+      </c>
+      <c r="O22">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="P22">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="Q22">
+        <v>0.005417401744222223</v>
+      </c>
+      <c r="R22">
+        <v>0.04875661569800001</v>
+      </c>
+      <c r="S22">
+        <v>7.831696227032329E-06</v>
+      </c>
+      <c r="T22">
+        <v>7.831696227032327E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H23">
+        <v>0.126091</v>
+      </c>
+      <c r="I23">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J23">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N23">
+        <v>1.341985</v>
+      </c>
+      <c r="O23">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P23">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q23">
+        <v>0.01880135895944444</v>
+      </c>
+      <c r="R23">
+        <v>0.169212230635</v>
+      </c>
+      <c r="S23">
+        <v>2.718028659823931E-05</v>
+      </c>
+      <c r="T23">
+        <v>2.71802865982393E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H24">
+        <v>0.126091</v>
+      </c>
+      <c r="I24">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J24">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N24">
+        <v>1.851284</v>
+      </c>
+      <c r="O24">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P24">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q24">
+        <v>0.02593669453822222</v>
+      </c>
+      <c r="R24">
+        <v>0.233430250844</v>
+      </c>
+      <c r="S24">
+        <v>3.749552319492011E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.749552319492011E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.04203033333333334</v>
+      </c>
+      <c r="H25">
+        <v>0.126091</v>
+      </c>
+      <c r="I25">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="J25">
+        <v>0.002773622790292112</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N25">
+        <v>46.931938</v>
+      </c>
+      <c r="O25">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P25">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q25">
+        <v>0.6575216660397779</v>
+      </c>
+      <c r="R25">
+        <v>5.917694994358</v>
+      </c>
+      <c r="S25">
+        <v>0.0009505497643049647</v>
+      </c>
+      <c r="T25">
+        <v>0.0009505497643049647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H26">
+        <v>0.206712</v>
+      </c>
+      <c r="I26">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J26">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.958978666666666</v>
+      </c>
+      <c r="N26">
+        <v>5.876935999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="P26">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="Q26">
+        <v>0.134981466048</v>
+      </c>
+      <c r="R26">
+        <v>1.214833194432</v>
+      </c>
+      <c r="S26">
+        <v>0.0001951366888185596</v>
+      </c>
+      <c r="T26">
+        <v>0.0001951366888185595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.206712</v>
+      </c>
+      <c r="I27">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J27">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>26.851518</v>
+      </c>
+      <c r="N27">
+        <v>80.554554</v>
+      </c>
+      <c r="O27">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="P27">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="Q27">
+        <v>1.850176996272</v>
+      </c>
+      <c r="R27">
+        <v>16.651592966448</v>
+      </c>
+      <c r="S27">
+        <v>0.002674718413951735</v>
+      </c>
+      <c r="T27">
+        <v>0.002674718413951735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H28">
+        <v>0.206712</v>
+      </c>
+      <c r="I28">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J28">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.1288926666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.386678</v>
+      </c>
+      <c r="O28">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="P28">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="Q28">
+        <v>0.008881220304000003</v>
+      </c>
+      <c r="R28">
+        <v>0.07993098273600001</v>
+      </c>
+      <c r="S28">
+        <v>1.283918432308655E-05</v>
+      </c>
+      <c r="T28">
+        <v>1.283918432308655E-05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.206712</v>
+      </c>
+      <c r="I29">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J29">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N29">
+        <v>1.341985</v>
+      </c>
+      <c r="O29">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P29">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q29">
+        <v>0.03082271148</v>
+      </c>
+      <c r="R29">
+        <v>0.27740440332</v>
+      </c>
+      <c r="S29">
+        <v>4.455902009893842E-05</v>
+      </c>
+      <c r="T29">
+        <v>4.45590200989384E-05</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.206712</v>
+      </c>
+      <c r="I30">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J30">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N30">
+        <v>1.851284</v>
+      </c>
+      <c r="O30">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P30">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q30">
+        <v>0.04252029091200001</v>
+      </c>
+      <c r="R30">
+        <v>0.382682618208</v>
+      </c>
+      <c r="S30">
+        <v>6.146968927733403E-05</v>
+      </c>
+      <c r="T30">
+        <v>6.146968927733401E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.06890400000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.206712</v>
+      </c>
+      <c r="I31">
+        <v>0.004547042328372866</v>
+      </c>
+      <c r="J31">
+        <v>0.004547042328372865</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N31">
+        <v>46.931938</v>
+      </c>
+      <c r="O31">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P31">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q31">
+        <v>1.077932751984</v>
+      </c>
+      <c r="R31">
+        <v>9.701394767856002</v>
+      </c>
+      <c r="S31">
+        <v>0.001558319331903212</v>
+      </c>
+      <c r="T31">
+        <v>0.001558319331903211</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.417961</v>
+      </c>
+      <c r="H32">
+        <v>10.253883</v>
+      </c>
+      <c r="I32">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J32">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.958978666666666</v>
+      </c>
+      <c r="N32">
+        <v>5.876935999999999</v>
+      </c>
+      <c r="O32">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="P32">
+        <v>0.04291508077699997</v>
+      </c>
+      <c r="Q32">
+        <v>6.695712682498665</v>
+      </c>
+      <c r="R32">
+        <v>60.26141414248799</v>
+      </c>
+      <c r="S32">
+        <v>0.009679693371226235</v>
+      </c>
+      <c r="T32">
+        <v>0.009679693371226235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.417961</v>
+      </c>
+      <c r="H33">
+        <v>10.253883</v>
+      </c>
+      <c r="I33">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J33">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>26.851518</v>
+      </c>
+      <c r="N33">
+        <v>80.554554</v>
+      </c>
+      <c r="O33">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="P33">
+        <v>0.5882325742300422</v>
+      </c>
+      <c r="Q33">
+        <v>91.777441314798</v>
+      </c>
+      <c r="R33">
+        <v>825.996971833182</v>
+      </c>
+      <c r="S33">
+        <v>0.1326785560325799</v>
+      </c>
+      <c r="T33">
+        <v>0.1326785560325799</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.417961</v>
+      </c>
+      <c r="H34">
+        <v>10.253883</v>
+      </c>
+      <c r="I34">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J34">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>0.1288926666666667</v>
+      </c>
+      <c r="N34">
+        <v>0.386678</v>
+      </c>
+      <c r="O34">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="P34">
+        <v>0.002823634221078603</v>
+      </c>
+      <c r="Q34">
+        <v>0.4405501078526667</v>
+      </c>
+      <c r="R34">
+        <v>3.964950970674</v>
+      </c>
+      <c r="S34">
+        <v>0.000636883653897034</v>
+      </c>
+      <c r="T34">
+        <v>0.0006368836538970339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.417961</v>
+      </c>
+      <c r="H35">
+        <v>10.253883</v>
+      </c>
+      <c r="I35">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J35">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.4473283333333333</v>
+      </c>
+      <c r="N35">
+        <v>1.341985</v>
+      </c>
+      <c r="O35">
+        <v>0.009799561315032583</v>
+      </c>
+      <c r="P35">
+        <v>0.009799561315032582</v>
+      </c>
+      <c r="Q35">
+        <v>1.528950797528333</v>
+      </c>
+      <c r="R35">
+        <v>13.760557177755</v>
+      </c>
+      <c r="S35">
+        <v>0.002210336016724539</v>
+      </c>
+      <c r="T35">
+        <v>0.002210336016724539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.417961</v>
+      </c>
+      <c r="H36">
+        <v>10.253883</v>
+      </c>
+      <c r="I36">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J36">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.6170946666666667</v>
+      </c>
+      <c r="N36">
+        <v>1.851284</v>
+      </c>
+      <c r="O36">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="P36">
+        <v>0.01351860942524602</v>
+      </c>
+      <c r="Q36">
+        <v>2.109205503974667</v>
+      </c>
+      <c r="R36">
+        <v>18.982849535772</v>
+      </c>
+      <c r="S36">
+        <v>0.003049184381633082</v>
+      </c>
+      <c r="T36">
+        <v>0.003049184381633082</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.417961</v>
+      </c>
+      <c r="H37">
+        <v>10.253883</v>
+      </c>
+      <c r="I37">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="J37">
+        <v>0.2255545881767045</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>15.64397933333333</v>
+      </c>
+      <c r="N37">
+        <v>46.931938</v>
+      </c>
+      <c r="O37">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="P37">
+        <v>0.3427105400316007</v>
+      </c>
+      <c r="Q37">
+        <v>53.47051124613934</v>
+      </c>
+      <c r="R37">
+        <v>481.234601215254</v>
+      </c>
+      <c r="S37">
+        <v>0.07729993472064368</v>
+      </c>
+      <c r="T37">
+        <v>0.07729993472064368</v>
       </c>
     </row>
   </sheetData>
